--- a/Trabajo de analisis.xlsx
+++ b/Trabajo de analisis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC19\Desktop\perfectNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E51E2CD-B943-4836-B74F-1579C0AFFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E90A0-B4F4-4689-A22E-D1550815FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{304ACAD7-2492-4B24-AB01-9B5FF1E8D717}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Valor</t>
   </si>
@@ -45,9 +45,6 @@
     <t>T5</t>
   </si>
   <si>
-    <t>Promo</t>
-  </si>
-  <si>
     <t>DATOS DEL SISTEMA DEL COMPUTADOR</t>
   </si>
   <si>
@@ -59,12 +56,27 @@
   <si>
     <t>Sistema operativo de 64 bits, procesador basado en x64</t>
   </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>codigo de esteban</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>codigo de barragan</t>
+  </si>
+  <si>
+    <t>codigo mio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +97,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,41 +118,19 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -150,24 +148,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -175,7 +298,13 @@
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -192,9 +321,2859 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10106198263678579"/>
+          <c:y val="5.4271487495819559E-2"/>
+          <c:w val="0.87804532980386008"/>
+          <c:h val="0.78880383486306704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$11:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$11:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8504740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8286940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCF5-4A8B-9806-F7F1F6E8A5A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1435710528"/>
+        <c:axId val="1435712448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1435710528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435712448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1435712448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435710528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Promedio 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10712606764061758"/>
+          <c:y val="0.20351165980795613"/>
+          <c:w val="0.87310457144418729"/>
+          <c:h val="0.66920017713835156"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$25:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$25:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>184780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7852080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>182960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7914600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184360</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6750-49F4-9E8F-4DEB451FF87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="402868912"/>
+        <c:axId val="402864112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="402868912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402864112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402864112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402868912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Promedio 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$38:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$38:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8688560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8259860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8370220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8790840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8532460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8396780</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8865960</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8798900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8531660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8879740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A53-45C5-B44E-772610D20277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="466663424"/>
+        <c:axId val="466655264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="466663424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466655264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466655264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466663424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834F59A6-60F5-5784-29F2-8FFE0C76BC24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1094C52-EF83-61AE-7500-F435E49C987E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC4CFB7-810C-AEB4-A721-548213D8C5A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}" name="Tabla1" displayName="Tabla1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}" name="Tabla1" displayName="Tabla1" ref="B10:H20" totalsRowShown="0">
+  <autoFilter ref="B10:H20" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:H20">
+    <sortCondition ref="B10:B20"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4C9591D0-4EA4-4CF2-AABB-63A826F3CB01}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{C9A11EFE-98EE-4E98-80C5-41052E80821B}" name="T1"/>
@@ -202,8 +3181,50 @@
     <tableColumn id="4" xr3:uid="{B6762C6B-9BD9-43DE-9292-5A7945B5BD54}" name="T3"/>
     <tableColumn id="5" xr3:uid="{0CD3BDF0-33A0-4649-A9A8-B2480A440D39}" name="T4"/>
     <tableColumn id="6" xr3:uid="{41873EEF-7D12-4609-AB29-20815DFCB2AF}" name="T5"/>
-    <tableColumn id="7" xr3:uid="{5B8074DC-C11E-47A8-801C-40B5E4101C66}" name="Promo" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{5B8074DC-C11E-47A8-801C-40B5E4101C66}" name="Promedio" dataDxfId="2">
       <calculatedColumnFormula>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{111BD266-0B2D-4BB8-8EE1-CB969DF25740}" name="Tabla13" displayName="Tabla13" ref="B24:H34" totalsRowShown="0">
+  <autoFilter ref="B24:H34" xr:uid="{111BD266-0B2D-4BB8-8EE1-CB969DF25740}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:H34">
+    <sortCondition ref="B10:B20"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{86008F49-531A-43A0-BA6A-91D74DF99363}" name="Valor"/>
+    <tableColumn id="2" xr3:uid="{A39B32BF-07FE-461E-AA28-4F188FCCA660}" name="T1"/>
+    <tableColumn id="3" xr3:uid="{535E0991-6328-4DF9-AD4C-97F59490F902}" name="T2"/>
+    <tableColumn id="4" xr3:uid="{C979ECBD-A329-40DF-94A0-544224752C9E}" name="T3"/>
+    <tableColumn id="5" xr3:uid="{9096A9F1-5850-42B2-ADA7-736FEB021A0E}" name="T4"/>
+    <tableColumn id="6" xr3:uid="{5224EBA3-0570-482C-9C47-9711AF15B8B1}" name="T5"/>
+    <tableColumn id="7" xr3:uid="{C97D7035-CE6E-465E-984F-081E45491CFB}" name="Promedio" dataDxfId="1">
+      <calculatedColumnFormula>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58CFE86E-A545-4029-8539-0EB4C9D73CC6}" name="Tabla134" displayName="Tabla134" ref="B37:H47" totalsRowShown="0">
+  <autoFilter ref="B37:H47" xr:uid="{58CFE86E-A545-4029-8539-0EB4C9D73CC6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B38:H47">
+    <sortCondition ref="B10:B20"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BA422E89-16D5-4BE5-AC4E-9F712B436A85}" name="Valor"/>
+    <tableColumn id="2" xr3:uid="{AC367C60-BE3F-413E-819C-847B21931FDB}" name="T1"/>
+    <tableColumn id="3" xr3:uid="{A755C871-B7B0-462A-BEF5-E26DDA76F9E6}" name="T2"/>
+    <tableColumn id="4" xr3:uid="{8D9B1E73-F9E6-4FEB-9387-C49BF893EF2E}" name="T3"/>
+    <tableColumn id="5" xr3:uid="{A6791223-ACC9-4EC1-9E2F-8264BA3D32B2}" name="T4"/>
+    <tableColumn id="6" xr3:uid="{5D54CD2C-951C-4282-918B-17B7C1B9596C}" name="T5"/>
+    <tableColumn id="7" xr3:uid="{A4DB6DC6-C9D8-4776-9391-431CB43222FF}" name="Promedio" dataDxfId="0">
+      <calculatedColumnFormula>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -507,342 +3528,912 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1B845E-1BE4-4F60-B45B-737BD01267B9}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="B2:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>568</v>
-      </c>
-      <c r="B2" s="2">
-        <v>19600</v>
-      </c>
-      <c r="C2" s="2">
-        <v>21600</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5900</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5800</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5700</v>
-      </c>
-      <c r="G2" s="2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>200</v>
+      </c>
+      <c r="D11" s="6">
+        <v>200</v>
+      </c>
+      <c r="E11" s="6">
+        <v>300</v>
+      </c>
+      <c r="F11" s="6">
+        <v>300</v>
+      </c>
+      <c r="G11" s="6">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>11720</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+        <v>240</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>9049200</v>
+      </c>
+      <c r="D13">
+        <v>8633400</v>
+      </c>
+      <c r="E13">
+        <v>7881500</v>
+      </c>
+      <c r="F13">
+        <v>7864100</v>
+      </c>
+      <c r="G13">
+        <v>9095500</v>
+      </c>
+      <c r="H13">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>8504740</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="C14">
         <v>700</v>
       </c>
-      <c r="C3">
+      <c r="D14">
         <v>800</v>
       </c>
-      <c r="D3">
+      <c r="E14">
         <v>700</v>
       </c>
-      <c r="E3">
+      <c r="F14">
         <v>700</v>
       </c>
-      <c r="F3">
+      <c r="G14">
         <v>800</v>
       </c>
-      <c r="G3">
+      <c r="H14">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
         <v>740</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>500</v>
-      </c>
-      <c r="C4">
-        <v>600</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>1100</v>
+      </c>
+      <c r="D15">
+        <v>1100</v>
+      </c>
+      <c r="E15">
+        <v>1100</v>
+      </c>
+      <c r="F15">
+        <v>1100</v>
+      </c>
+      <c r="G15">
+        <v>1100</v>
+      </c>
+      <c r="H15">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>520</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+        <v>1100</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>1400</v>
+      </c>
+      <c r="D16">
+        <v>1300</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <v>1300</v>
+      </c>
+      <c r="G16">
+        <v>1300</v>
+      </c>
+      <c r="H16">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>496</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7959600</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7980400</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8020400</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8699900</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8774400</v>
+      </c>
+      <c r="H17" s="1">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>8286940</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>666</v>
+      </c>
+      <c r="C18">
+        <v>7000</v>
+      </c>
+      <c r="D18">
+        <v>6900</v>
+      </c>
+      <c r="E18">
+        <v>7000</v>
+      </c>
+      <c r="F18">
+        <v>6900</v>
+      </c>
+      <c r="G18">
+        <v>6600</v>
+      </c>
+      <c r="H18">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>950</v>
+      </c>
+      <c r="C19">
+        <v>9300</v>
+      </c>
+      <c r="D19">
+        <v>9400</v>
+      </c>
+      <c r="E19">
+        <v>9400</v>
+      </c>
+      <c r="F19">
+        <v>9400</v>
+      </c>
+      <c r="G19">
+        <v>9400</v>
+      </c>
+      <c r="H19">
+        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>8000</v>
       </c>
-      <c r="B5">
+      <c r="C20">
         <v>164500</v>
       </c>
-      <c r="C5">
+      <c r="D20">
         <v>75300</v>
       </c>
-      <c r="D5">
+      <c r="E20">
         <v>75200</v>
       </c>
-      <c r="E5">
+      <c r="F20">
         <v>78200</v>
       </c>
-      <c r="F5">
+      <c r="G20">
         <v>78000</v>
       </c>
-      <c r="G5">
+      <c r="H20">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
         <v>94240</v>
       </c>
-      <c r="I5" s="4" t="s">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>188200</v>
+      </c>
+      <c r="D25" s="6">
+        <v>165700</v>
+      </c>
+      <c r="E25" s="6">
+        <v>175200</v>
+      </c>
+      <c r="F25" s="6">
+        <v>212000</v>
+      </c>
+      <c r="G25" s="6">
+        <v>182800</v>
+      </c>
+      <c r="H25" s="6">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>184780</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>204200</v>
+      </c>
+      <c r="D26">
+        <v>173300</v>
+      </c>
+      <c r="E26">
+        <v>205400</v>
+      </c>
+      <c r="F26">
+        <v>170000</v>
+      </c>
+      <c r="G26">
+        <v>170900</v>
+      </c>
+      <c r="H26">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>184760</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>7747000</v>
+      </c>
+      <c r="D27">
+        <v>8257700</v>
+      </c>
+      <c r="E27">
+        <v>7426400</v>
+      </c>
+      <c r="F27">
+        <v>8173000</v>
+      </c>
+      <c r="G27">
+        <v>7656300</v>
+      </c>
+      <c r="H27">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>7852080</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>191300</v>
+      </c>
+      <c r="D28">
+        <v>191200</v>
+      </c>
+      <c r="E28">
+        <v>177700</v>
+      </c>
+      <c r="F28">
+        <v>173800</v>
+      </c>
+      <c r="G28">
+        <v>166000</v>
+      </c>
+      <c r="H28">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>141800</v>
+      </c>
+      <c r="D29">
+        <v>167500</v>
+      </c>
+      <c r="E29">
+        <v>185700</v>
+      </c>
+      <c r="F29">
+        <v>172500</v>
+      </c>
+      <c r="G29">
+        <v>247300</v>
+      </c>
+      <c r="H29">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>182960</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>169500</v>
+      </c>
+      <c r="D30">
+        <v>173800</v>
+      </c>
+      <c r="E30">
+        <v>175200</v>
+      </c>
+      <c r="F30">
+        <v>167600</v>
+      </c>
+      <c r="G30">
+        <v>166400</v>
+      </c>
+      <c r="H30">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>170500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>496</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7582800</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7796900</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8570800</v>
+      </c>
+      <c r="F31" s="4">
+        <v>7686700</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7935800</v>
+      </c>
+      <c r="H31" s="1">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>7914600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>666</v>
+      </c>
+      <c r="C32">
+        <v>175600</v>
+      </c>
+      <c r="D32">
+        <v>177000</v>
+      </c>
+      <c r="E32">
+        <v>187200</v>
+      </c>
+      <c r="F32">
+        <v>182000</v>
+      </c>
+      <c r="G32">
+        <v>200000</v>
+      </c>
+      <c r="H32">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>184360</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>950</v>
       </c>
-      <c r="B6">
-        <v>9300</v>
-      </c>
-      <c r="C6">
-        <v>9400</v>
-      </c>
-      <c r="D6">
-        <v>9400</v>
-      </c>
-      <c r="E6">
-        <v>9400</v>
-      </c>
-      <c r="F6">
-        <v>9400</v>
-      </c>
-      <c r="G6">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>9380</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="C33">
+        <v>177700</v>
+      </c>
+      <c r="D33">
+        <v>176400</v>
+      </c>
+      <c r="E33">
+        <v>178800</v>
+      </c>
+      <c r="F33">
+        <v>178600</v>
+      </c>
+      <c r="G33">
+        <v>189900</v>
+      </c>
+      <c r="H33">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>180280</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>8000</v>
+      </c>
+      <c r="C34">
+        <v>244400</v>
+      </c>
+      <c r="D34">
+        <v>245100</v>
+      </c>
+      <c r="E34">
+        <v>240300</v>
+      </c>
+      <c r="F34">
+        <v>248400</v>
+      </c>
+      <c r="G34">
+        <v>246300</v>
+      </c>
+      <c r="H34">
+        <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
+        <v>244900</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>10370500</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8480500</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8092300</v>
+      </c>
+      <c r="F38" s="6">
+        <v>8334500</v>
+      </c>
+      <c r="G38" s="6">
+        <v>8165000</v>
+      </c>
+      <c r="H38" s="6">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8688560</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>8808900</v>
+      </c>
+      <c r="D39">
+        <v>8194400</v>
+      </c>
+      <c r="E39">
+        <v>8171200</v>
+      </c>
+      <c r="F39">
+        <v>8078700</v>
+      </c>
+      <c r="G39">
+        <v>8046100</v>
+      </c>
+      <c r="H39">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8259860</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>7984400</v>
+      </c>
+      <c r="D40">
+        <v>8208800</v>
+      </c>
+      <c r="E40">
+        <v>8378000</v>
+      </c>
+      <c r="F40">
+        <v>8267000</v>
+      </c>
+      <c r="G40">
+        <v>9012900</v>
+      </c>
+      <c r="H40">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8370220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>8309000</v>
+      </c>
+      <c r="D41">
+        <v>8785400</v>
+      </c>
+      <c r="E41">
+        <v>8660800</v>
+      </c>
+      <c r="F41">
+        <v>8692000</v>
+      </c>
+      <c r="G41">
+        <v>9507000</v>
+      </c>
+      <c r="H41">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8790840</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
         <v>55</v>
       </c>
-      <c r="B7">
-        <v>1100</v>
-      </c>
-      <c r="C7">
-        <v>1100</v>
-      </c>
-      <c r="D7">
-        <v>1100</v>
-      </c>
-      <c r="E7">
-        <v>1100</v>
-      </c>
-      <c r="F7">
-        <v>1100</v>
-      </c>
-      <c r="G7">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>1100</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="C42">
+        <v>8685200</v>
+      </c>
+      <c r="D42">
+        <v>7736600</v>
+      </c>
+      <c r="E42">
+        <v>8651500</v>
+      </c>
+      <c r="F42">
+        <v>8166200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>9422800</v>
+      </c>
+      <c r="H42">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8532460</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43">
+        <v>8814100</v>
+      </c>
+      <c r="D43">
+        <v>8124400</v>
+      </c>
+      <c r="E43">
+        <v>9227500</v>
+      </c>
+      <c r="F43">
+        <v>7786000</v>
+      </c>
+      <c r="G43">
+        <v>8031900</v>
+      </c>
+      <c r="H43">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8396780</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>496</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9258700</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8508300</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8751800</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7905500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9905500</v>
+      </c>
+      <c r="H44" s="1">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8865960</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>666</v>
       </c>
-      <c r="B8">
-        <v>7000</v>
-      </c>
-      <c r="C8">
-        <v>6900</v>
-      </c>
-      <c r="D8">
-        <v>7000</v>
-      </c>
-      <c r="E8">
-        <v>6900</v>
-      </c>
-      <c r="F8">
-        <v>6600</v>
-      </c>
-      <c r="G8">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>6880</v>
+      <c r="C45">
+        <v>8482800</v>
+      </c>
+      <c r="D45">
+        <v>8123200</v>
+      </c>
+      <c r="E45">
+        <v>10918100</v>
+      </c>
+      <c r="F45">
+        <v>8199700</v>
+      </c>
+      <c r="G45">
+        <v>8270700</v>
+      </c>
+      <c r="H45">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8798900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>300</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>240</v>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>950</v>
+      </c>
+      <c r="C46">
+        <v>8391800</v>
+      </c>
+      <c r="D46">
+        <v>7711400</v>
+      </c>
+      <c r="E46">
+        <v>9225500</v>
+      </c>
+      <c r="F46">
+        <v>9154100</v>
+      </c>
+      <c r="G46">
+        <v>8175500</v>
+      </c>
+      <c r="H46">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8531660</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>1400</v>
-      </c>
-      <c r="C10">
-        <v>1300</v>
-      </c>
-      <c r="D10">
-        <v>1500</v>
-      </c>
-      <c r="E10">
-        <v>1300</v>
-      </c>
-      <c r="F10">
-        <v>1300</v>
-      </c>
-      <c r="G10">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>1360</v>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>8000</v>
+      </c>
+      <c r="C47">
+        <v>8530500</v>
+      </c>
+      <c r="D47">
+        <v>8831600</v>
+      </c>
+      <c r="E47">
+        <v>7976900</v>
+      </c>
+      <c r="F47">
+        <v>9267200</v>
+      </c>
+      <c r="G47">
+        <v>9792500</v>
+      </c>
+      <c r="H47">
+        <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
+        <v>8879740</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>500</v>
-      </c>
-      <c r="C11">
-        <v>600</v>
-      </c>
-      <c r="D11">
-        <v>700</v>
-      </c>
-      <c r="E11">
-        <v>600</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-      <c r="G11">
-        <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>580</v>
-      </c>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="I1:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I5:N5"/>
+  <mergeCells count="7">
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Trabajo de analisis.xlsx
+++ b/Trabajo de analisis.xlsx
@@ -5,27 +5,39 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC19\Desktop\perfectNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC20\Desktop\perfectNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E90A0-B4F4-4689-A22E-D1550815FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971539F8-FCA3-4AAA-A028-3A374FF8ACBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{304ACAD7-2492-4B24-AB01-9B5FF1E8D717}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{304ACAD7-2492-4B24-AB01-9B5FF1E8D717}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Numero Perfecto" sheetId="1" r:id="rId1"/>
+    <sheet name="Matriz Random" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="15">
   <si>
     <t>Valor</t>
   </si>
@@ -252,20 +264,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -298,7 +308,10 @@
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -386,7 +399,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$10</c:f>
+              <c:f>'Numero Perfecto'!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -409,7 +422,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$11:$B$20</c:f>
+              <c:f>'Numero Perfecto'!$B$11:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -448,7 +461,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$11:$H$20</c:f>
+              <c:f>'Numero Perfecto'!$H$11:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -753,7 +766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$24</c:f>
+              <c:f>'Numero Perfecto'!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -776,7 +789,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$25:$B$34</c:f>
+              <c:f>'Numero Perfecto'!$B$25:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -815,7 +828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$25:$H$34</c:f>
+              <c:f>'Numero Perfecto'!$H$25:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1110,7 +1123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$H$37</c:f>
+              <c:f>'Numero Perfecto'!$H$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1133,7 +1146,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$38:$B$47</c:f>
+              <c:f>'Numero Perfecto'!$B$38:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1172,7 +1185,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$38:$H$47</c:f>
+              <c:f>'Numero Perfecto'!$H$38:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1387,6 +1400,327 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Matriz Random'!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Matriz Random'!$H$16:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9509060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13569060</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16057600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19509020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21382800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>517430260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>518597360</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1018358300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024019560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1535056080</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5C5-4E0D-AD5A-29A40E09DB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1277162815"/>
+        <c:axId val="1277165215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1277162815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277165215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277165215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277162815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1507,6 +1841,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2540,6 +2914,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3168,6 +4058,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8C961-25AF-247D-517A-0533BF66FE91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}" name="Tabla1" displayName="Tabla1" ref="B10:H20" totalsRowShown="0">
   <autoFilter ref="B10:H20" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}"/>
@@ -3181,7 +4112,7 @@
     <tableColumn id="4" xr3:uid="{B6762C6B-9BD9-43DE-9292-5A7945B5BD54}" name="T3"/>
     <tableColumn id="5" xr3:uid="{0CD3BDF0-33A0-4649-A9A8-B2480A440D39}" name="T4"/>
     <tableColumn id="6" xr3:uid="{41873EEF-7D12-4609-AB29-20815DFCB2AF}" name="T5"/>
-    <tableColumn id="7" xr3:uid="{5B8074DC-C11E-47A8-801C-40B5E4101C66}" name="Promedio" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{5B8074DC-C11E-47A8-801C-40B5E4101C66}" name="Promedio" dataDxfId="1">
       <calculatedColumnFormula>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3202,7 +4133,7 @@
     <tableColumn id="4" xr3:uid="{C979ECBD-A329-40DF-94A0-544224752C9E}" name="T3"/>
     <tableColumn id="5" xr3:uid="{9096A9F1-5850-42B2-ADA7-736FEB021A0E}" name="T4"/>
     <tableColumn id="6" xr3:uid="{5224EBA3-0570-482C-9C47-9711AF15B8B1}" name="T5"/>
-    <tableColumn id="7" xr3:uid="{C97D7035-CE6E-465E-984F-081E45491CFB}" name="Promedio" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{C97D7035-CE6E-465E-984F-081E45491CFB}" name="Promedio" dataDxfId="3">
       <calculatedColumnFormula>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3223,8 +4154,29 @@
     <tableColumn id="4" xr3:uid="{8D9B1E73-F9E6-4FEB-9387-C49BF893EF2E}" name="T3"/>
     <tableColumn id="5" xr3:uid="{A6791223-ACC9-4EC1-9E2F-8264BA3D32B2}" name="T4"/>
     <tableColumn id="6" xr3:uid="{5D54CD2C-951C-4282-918B-17B7C1B9596C}" name="T5"/>
-    <tableColumn id="7" xr3:uid="{A4DB6DC6-C9D8-4776-9391-431CB43222FF}" name="Promedio" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{A4DB6DC6-C9D8-4776-9391-431CB43222FF}" name="Promedio" dataDxfId="2">
       <calculatedColumnFormula>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B0A6E83C-E9F5-4482-9761-F64467427E0D}" name="Tabla16" displayName="Tabla16" ref="B15:H25" totalsRowShown="0">
+  <autoFilter ref="B15:H25" xr:uid="{B0A6E83C-E9F5-4482-9761-F64467427E0D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:H25">
+    <sortCondition ref="B10:B20"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EC4A9DDB-C77C-4B82-8798-195D6BD8EA26}" name="Valor"/>
+    <tableColumn id="2" xr3:uid="{D6CE568A-EE86-4D15-9B40-B0BBB7820619}" name="T1"/>
+    <tableColumn id="3" xr3:uid="{E3FA3D8C-93D7-4158-966B-E0E46DF53E43}" name="T2"/>
+    <tableColumn id="4" xr3:uid="{28556C54-FF36-44B6-911A-696176E45384}" name="T3"/>
+    <tableColumn id="5" xr3:uid="{199D987C-5E53-4721-B934-AF6F84FCEE59}" name="T4"/>
+    <tableColumn id="6" xr3:uid="{35D12DE6-B3ED-4A02-8F9D-7E226902A557}" name="T5"/>
+    <tableColumn id="7" xr3:uid="{D260D525-6FF5-4F6F-9B4A-AF812B568B55}" name="Promedio" dataDxfId="0">
+      <calculatedColumnFormula>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3530,8 +4482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1B845E-1BE4-4F60-B45B-737BD01267B9}">
   <dimension ref="B2:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,63 +4493,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3623,25 +4575,25 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>200</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>300</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
         <v>240</v>
       </c>
@@ -3863,15 +4815,15 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -3897,25 +4849,25 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>188200</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <v>165700</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <v>175200</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>212000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>182800</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <f>(Tabla13[[#This Row],[T1]]+Tabla13[[#This Row],[T2]]+Tabla13[[#This Row],[T3]]+Tabla13[[#This Row],[T4]]+Tabla13[[#This Row],[T5]])/5</f>
         <v>184780</v>
       </c>
@@ -4053,7 +5005,7 @@
       <c r="E31" s="1">
         <v>8570800</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>7686700</v>
       </c>
       <c r="G31" s="1">
@@ -4137,15 +5089,15 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -4171,25 +5123,25 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>10370500</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38">
         <v>8480500</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38">
         <v>8092300</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38">
         <v>8334500</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38">
         <v>8165000</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <f>(Tabla134[[#This Row],[T1]]+Tabla134[[#This Row],[T2]]+Tabla134[[#This Row],[T3]]+Tabla134[[#This Row],[T4]]+Tabla134[[#This Row],[T5]])/5</f>
         <v>8688560</v>
       </c>
@@ -4285,7 +5237,7 @@
       <c r="F42">
         <v>8166200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>9422800</v>
       </c>
       <c r="H42">
@@ -4436,4 +5388,352 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DA57F7-48AF-4B23-B57E-D3BA6CFD0748}">
+  <dimension ref="B5:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>9378800</v>
+      </c>
+      <c r="D16">
+        <v>9302800</v>
+      </c>
+      <c r="E16">
+        <v>8991300</v>
+      </c>
+      <c r="F16">
+        <v>9722000</v>
+      </c>
+      <c r="G16">
+        <v>10150400</v>
+      </c>
+      <c r="H16">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>9509060</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>12600100</v>
+      </c>
+      <c r="D17">
+        <v>13888600</v>
+      </c>
+      <c r="E17">
+        <v>13486400</v>
+      </c>
+      <c r="F17">
+        <v>14165800</v>
+      </c>
+      <c r="G17">
+        <v>13704400</v>
+      </c>
+      <c r="H17">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>13569060</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>15588000</v>
+      </c>
+      <c r="D18">
+        <v>16216500</v>
+      </c>
+      <c r="E18">
+        <v>16116400</v>
+      </c>
+      <c r="F18">
+        <v>16864400</v>
+      </c>
+      <c r="G18">
+        <v>15502700</v>
+      </c>
+      <c r="H18">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>16057600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>18916000</v>
+      </c>
+      <c r="D19">
+        <v>19528100</v>
+      </c>
+      <c r="E19">
+        <v>19631400</v>
+      </c>
+      <c r="F19">
+        <v>19258500</v>
+      </c>
+      <c r="G19">
+        <v>20211100</v>
+      </c>
+      <c r="H19">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>19509020</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>21617300</v>
+      </c>
+      <c r="D20">
+        <v>21230500</v>
+      </c>
+      <c r="E20">
+        <v>21538700</v>
+      </c>
+      <c r="F20">
+        <v>21197500</v>
+      </c>
+      <c r="G20">
+        <v>21330000</v>
+      </c>
+      <c r="H20">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>21382800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>514300800</v>
+      </c>
+      <c r="D21">
+        <v>519711600</v>
+      </c>
+      <c r="E21">
+        <v>515524000</v>
+      </c>
+      <c r="F21">
+        <v>521602000</v>
+      </c>
+      <c r="G21">
+        <v>516012900</v>
+      </c>
+      <c r="H21">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>517430260</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1">
+        <v>517665700</v>
+      </c>
+      <c r="D22" s="1">
+        <v>524917500</v>
+      </c>
+      <c r="E22" s="1">
+        <v>515846500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>516681800</v>
+      </c>
+      <c r="G22" s="1">
+        <v>517875300</v>
+      </c>
+      <c r="H22" s="1">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>518597360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>1014243800</v>
+      </c>
+      <c r="D23">
+        <v>1022730200</v>
+      </c>
+      <c r="E23">
+        <v>1016542400</v>
+      </c>
+      <c r="F23">
+        <v>1012842000</v>
+      </c>
+      <c r="G23">
+        <v>1025433100</v>
+      </c>
+      <c r="H23">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>1018358300</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>1024023000</v>
+      </c>
+      <c r="D24">
+        <v>1020915100</v>
+      </c>
+      <c r="E24">
+        <v>1028173100</v>
+      </c>
+      <c r="F24">
+        <v>1023269300</v>
+      </c>
+      <c r="G24">
+        <v>1023717300</v>
+      </c>
+      <c r="H24">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>1024019560</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>1530153100</v>
+      </c>
+      <c r="D25">
+        <v>1541613300</v>
+      </c>
+      <c r="E25">
+        <v>1539153800</v>
+      </c>
+      <c r="F25">
+        <v>1532147800</v>
+      </c>
+      <c r="G25">
+        <v>1532212400</v>
+      </c>
+      <c r="H25">
+        <f>(Tabla16[[#This Row],[T1]]+Tabla16[[#This Row],[T2]]+Tabla16[[#This Row],[T3]]+Tabla16[[#This Row],[T4]]+Tabla16[[#This Row],[T5]])/5</f>
+        <v>1535056080</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>